--- a/output/Scheme_Master.xlsx
+++ b/output/Scheme_Master.xlsx
@@ -32,9 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -65,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,2088 +406,2088 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>Scheme Name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>Block</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>District</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>State</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Uttar Tajpur Water Supply Scheme</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C2" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="C2" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D2" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v xml:space="preserve">Anandapur Water Supply Scheme </v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C3" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="C3" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v xml:space="preserve">Andharkota Water Supply Scheme </v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C4" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C4" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v xml:space="preserve">Arabpur Water Supply Scheme </v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C5" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D5" t="str">
+      <c r="C5" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v xml:space="preserve">Baruipara Water Supply Scheme </v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C6" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D6" t="str">
+      <c r="C6" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="1" t="str">
         <v xml:space="preserve">Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme </v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C7" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="C7" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" s="1" t="str">
         <v xml:space="preserve">Karimpur Water Supply Scheme </v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C8" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D8" t="str">
+      <c r="C8" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9" s="1" t="str">
         <v xml:space="preserve">Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme </v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C9" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="C9" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10" s="1" t="str">
         <v xml:space="preserve">Madhugari  Water Supply Scheme </v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C10" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="C10" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11" s="1" t="str">
         <v>Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>Karimpur I</v>
       </c>
-      <c r="C11" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="C11" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12" s="1" t="str">
         <v>Dhoradaha Water Supply Scheme</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C12" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="C12" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D12" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13" s="1" t="str">
         <v>Dogachi Water Supply Scheme</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C13" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="C13" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D13" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" s="1" t="str">
         <v>Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C14" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="C14" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D14" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15" s="1" t="str">
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C15" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="C15" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D15" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16" s="1" t="str">
         <v>Kisorepur Water Supply Scheme</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C16" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="C16" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D16" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" s="1" t="str">
         <v>Madhpur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C17" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="C17" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18" s="1" t="str">
         <v>Mahisbathan Water Supply Scheme</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C18" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="C18" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D18" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19" s="1" t="str">
         <v>Murutia Water Supply Scheme</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C19" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="C19" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D19" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20" s="1" t="str">
         <v>Narayanpur Water Supply Scheme</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C20" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="C20" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D20" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21" s="1" t="str">
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C21" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="C21" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D21" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22" s="1" t="str">
         <v>Thanapara Water Supply Scheme</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C22" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="C22" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D22" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23" s="1" t="str">
         <v>Topla Water Supply Scheme</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <v>Karimpur II</v>
       </c>
-      <c r="C23" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D23" t="str">
+      <c r="C23" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D23" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24" s="1" t="str">
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C24" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="C24" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D24" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25" s="1" t="str">
         <v>Bagberia Water Supply Scheme</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C25" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="C25" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D25" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26" s="1" t="str">
         <v>Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C26" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="C26" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D26" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27" s="1" t="str">
         <v>Balibanga Water Supply Scheme</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C27" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="C27" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D27" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28" s="1" t="str">
         <v>Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C28" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D28" t="str">
+      <c r="C28" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D28" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29" s="1" t="str">
         <v>Betberia Water Supply Scheme</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C29" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D29" t="str">
+      <c r="C29" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D29" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30" s="1" t="str">
         <v>Brittihuda Water Supply Scheme</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C30" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D30" t="str">
+      <c r="C30" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D30" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31" s="1" t="str">
         <v>Chapra Bangalji Water Supply Scheme</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C31" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="C31" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D31" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32" s="1" t="str">
         <v>Elangi (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C32" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D32" t="str">
+      <c r="C32" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D32" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33" s="1" t="str">
         <v>Gongra Water Supply Scheme</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C33" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D33" t="str">
+      <c r="C33" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D33" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34" s="1" t="str">
         <v>Lakshmipur Water Supply Scheme</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C34" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D34" t="str">
+      <c r="C34" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D34" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35" s="1" t="str">
         <v>Madhabpur Water Supply Scheme</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C35" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D35" t="str">
+      <c r="C35" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D35" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36" s="1" t="str">
         <v>Mahatpur Water Supply Scheme</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C36" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D36" t="str">
+      <c r="C36" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D36" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37" s="1" t="str">
         <v>Maheshpur Water Supply Scheme</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C37" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D37" t="str">
+      <c r="C37" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D37" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38" s="1" t="str">
         <v>Maidanpur Water Supply Scheme</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <v>Chapra</v>
       </c>
-      <c r="C38" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D38" t="str">
+      <c r="C38" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D38" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39" s="1" t="str">
         <v>Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C39" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="C39" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D39" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40" s="1" t="str">
         <v>Bahadurpur Water Supply Scheme</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C40" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D40" t="str">
+      <c r="C40" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D40" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41" s="1" t="str">
         <v>Betai (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C41" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D41" t="str">
+      <c r="C41" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D41" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42" s="1" t="str">
         <v>Chanderghat Water Supply Scheme</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C42" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D42" t="str">
+      <c r="C42" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D42" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43" s="1" t="str">
         <v>Khanjipur Water Supply Scheme</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C43" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D43" t="str">
+      <c r="C43" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D43" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44" s="1" t="str">
         <v>Mobarakpur Water Supply Scheme</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C44" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D44" t="str">
+      <c r="C44" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D44" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45" s="1" t="str">
         <v>Natna Water Supply Scheme</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C45" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D45" t="str">
+      <c r="C45" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D45" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46" s="1" t="str">
         <v>Nazirpur Water Supply Scheme</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C46" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D46" t="str">
+      <c r="C46" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D46" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47" s="1" t="str">
         <v>Nischintapur Water Supply Scheme</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C47" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D47" t="str">
+      <c r="C47" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D47" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48" s="1" t="str">
         <v>Patharghata Water Supply Scheme</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C48" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D48" t="str">
+      <c r="C48" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D48" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49" s="1" t="str">
         <v>Putimari Water Supply Scheme</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C49" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D49" t="str">
+      <c r="C49" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D49" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50" s="1" t="str">
         <v>Shyamnagar Water Supply Scheme</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C50" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D50" t="str">
+      <c r="C50" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D50" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51" s="1" t="str">
         <v>Tehatta Water Supply Scheme</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="1" t="str">
         <v>Tehatta I</v>
       </c>
-      <c r="C51" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D51" t="str">
+      <c r="C51" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D51" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52" s="1" t="str">
         <v>Bara Naldaha Water Supply Scheme</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C52" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D52" t="str">
+      <c r="C52" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D52" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53" s="1" t="str">
         <v>Baraia Water Supply Scheme</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C53" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D53" t="str">
+      <c r="C53" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D53" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>Barnia Water Supply Scheme</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C54" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D54" t="str">
+      <c r="C54" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D54" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>Gopinathpur Water Supply Scheme</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C55" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D55" t="str">
+      <c r="C55" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D55" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>Hanspukuria Water Supply Scheme</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C56" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D56" t="str">
+      <c r="C56" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D56" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>Palasipara Water Supply Scheme</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C57" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D57" t="str">
+      <c r="C57" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D57" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>Palsunda Water Supply Scheme</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="1" t="str">
         <v>Tehatta II</v>
       </c>
-      <c r="C58" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D58" t="str">
+      <c r="C58" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D58" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59" s="1" t="str">
         <v>Bagula Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C59" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D59" t="str">
+      <c r="C59" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D59" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="A60" s="1" t="str">
         <v>Chupria Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C60" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D60" t="str">
+      <c r="C60" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D60" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61" s="1" t="str">
         <v>Garapota Water Supply Scheme</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C61" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D61" t="str">
+      <c r="C61" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D61" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="A62" s="1" t="str">
         <v>Betna Water Supply Scheme</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C62" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D62" t="str">
+      <c r="C62" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D62" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63" s="1" t="str">
         <v>Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C63" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D63" t="str">
+      <c r="C63" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D63" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="A64" s="1" t="str">
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C64" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D64" t="str">
+      <c r="C64" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D64" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="A65" s="1" t="str">
         <v>Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C65" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D65" t="str">
+      <c r="C65" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D65" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
+      <c r="A66" s="1" t="str">
         <v>Fatepur Water Supply Scheme  (Two Stage Pumping)</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C66" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D66" t="str">
+      <c r="C66" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D66" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
+      <c r="A67" s="1" t="str">
         <v>Gazna Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C67" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D67" t="str">
+      <c r="C67" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D67" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
+      <c r="A68" s="1" t="str">
         <v>Gobindapur Water Supply Scheme</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C68" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D68" t="str">
+      <c r="C68" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D68" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
+      <c r="A69" s="1" t="str">
         <v>HudaChapra Water Supply Scheme</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C69" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D69" t="str">
+      <c r="C69" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D69" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
+      <c r="A70" s="1" t="str">
         <v>Itaberia Water Supply Scheme</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C70" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D70" t="str">
+      <c r="C70" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D70" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
+      <c r="A71" s="1" t="str">
         <v>Jaypur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C71" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D71" t="str">
+      <c r="C71" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D71" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
+      <c r="A72" s="1" t="str">
         <v>Mamjoani Water Supply Scheme</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C72" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D72" t="str">
+      <c r="C72" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D72" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
+      <c r="A73" s="1" t="str">
         <v>Muragacha Water Supply Scheme (Zone I &amp; II)</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C73" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D73" t="str">
+      <c r="C73" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D73" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
+      <c r="A74" s="1" t="str">
         <v>Nutangram Water Supply Scheme</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C74" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D74" t="str">
+      <c r="C74" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D74" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
+      <c r="A75" s="1" t="str">
         <v>Pairadanga Water Supply Scheme</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C75" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D75" t="str">
+      <c r="C75" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D75" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
+      <c r="A76" s="1" t="str">
         <v>Purba Khamar Simulia Water Supply Scheme</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C76" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D76" t="str">
+      <c r="C76" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D76" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
+      <c r="A77" s="1" t="str">
         <v>Ramnagar Water Supply Scheme</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77" s="1" t="str">
         <v>Hanskhali</v>
       </c>
-      <c r="C77" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D77" t="str">
+      <c r="C77" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D77" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
+      <c r="A78" s="1" t="str">
         <v xml:space="preserve">Bablari Dewanganj Water Supply Scheme </v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C78" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D78" t="str">
+      <c r="C78" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D78" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
+      <c r="A79" s="1" t="str">
         <v>Bankar Dhopadi Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C79" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D79" t="str">
+      <c r="C79" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D79" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
+      <c r="A80" s="1" t="str">
         <v xml:space="preserve">Gadigachha Water Supply Scheme </v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C80" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D80" t="str">
+      <c r="C80" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D80" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
+      <c r="A81" s="1" t="str">
         <v xml:space="preserve">Mahisura Water Supply Scheme </v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C81" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D81" t="str">
+      <c r="C81" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D81" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
+      <c r="A82" s="1" t="str">
         <v>Pansila Water Supply Scheme (Two Stage Pumping)</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C82" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D82" t="str">
+      <c r="C82" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D82" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
+      <c r="A83" s="1" t="str">
         <v xml:space="preserve">Tiorkhali Water Supply Scheme </v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" s="1" t="str">
         <v>Nabadwip</v>
       </c>
-      <c r="C83" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D83" t="str">
+      <c r="C83" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D83" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
+      <c r="A84" s="1" t="str">
         <v>Anulia Water Supply Scheme</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C84" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D84" t="str">
+      <c r="C84" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D84" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
+      <c r="A85" s="1" t="str">
         <v xml:space="preserve">Bara Kulta Water Supply Scheme </v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C85" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D85" t="str">
+      <c r="C85" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D85" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
+      <c r="A86" s="1" t="str">
         <v xml:space="preserve">Birnagar Water Supply Scheme </v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C86" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D86" t="str">
+      <c r="C86" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D86" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
+      <c r="A87" s="1" t="str">
         <v>Par Niamatpur Water Supply Scheme</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C87" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D87" t="str">
+      <c r="C87" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D87" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
+      <c r="A88" s="1" t="str">
         <v>Paschim Noapara Water Supply Scheme</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C88" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D88" t="str">
+      <c r="C88" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D88" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
+      <c r="A89" s="1" t="str">
         <v xml:space="preserve">Radhakantapur Water Supply Scheme </v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C89" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D89" t="str">
+      <c r="C89" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D89" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
+      <c r="A90" s="1" t="str">
         <v>Tarapur Water Supply Scheme</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C90" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D90" t="str">
+      <c r="C90" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D90" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
+      <c r="A91" s="1" t="str">
         <v>Ukhil Nara Water Supply Scheme</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C91" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D91" t="str">
+      <c r="C91" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D91" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
+      <c r="A92" s="1" t="str">
         <v xml:space="preserve">Habibpur Water Supply Scheme </v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C92" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D92" t="str">
+      <c r="C92" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D92" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
+      <c r="A93" s="1" t="str">
         <v>Kalaighata Water Supply Scheme</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C93" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D93" t="str">
+      <c r="C93" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D93" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
+      <c r="A94" s="1" t="str">
         <v>Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="1" t="str">
         <v>Ranaghat I</v>
       </c>
-      <c r="C94" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D94" t="str">
+      <c r="C94" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D94" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
+      <c r="A95" s="1" t="str">
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C95" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D95" t="str">
+      <c r="C95" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D95" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
+      <c r="A96" s="1" t="str">
         <v>Debagram Water Supply Scheme</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C96" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D96" t="str">
+      <c r="C96" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D96" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
+      <c r="A97" s="1" t="str">
         <v>Dhantala Water Supply Scheme</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C97" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D97" t="str">
+      <c r="C97" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D97" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
+      <c r="A98" s="1" t="str">
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C98" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D98" t="str">
+      <c r="C98" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D98" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
+      <c r="A99" s="1" t="str">
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C99" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D99" t="str">
+      <c r="C99" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D99" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
+      <c r="A100" s="1" t="str">
         <v>Gangnapur Water Supply Scheme</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C100" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D100" t="str">
+      <c r="C100" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D100" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
+      <c r="A101" s="1" t="str">
         <v>Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C101" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D101" t="str">
+      <c r="C101" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D101" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
+      <c r="A102" s="1" t="str">
         <v>Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C102" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D102" t="str">
+      <c r="C102" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D102" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
+      <c r="A103" s="1" t="str">
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C103" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D103" t="str">
+      <c r="C103" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D103" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
+      <c r="A104" s="1" t="str">
         <v>Magurkhali Water Supply Scheme</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C104" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D104" t="str">
+      <c r="C104" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D104" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
+      <c r="A105" s="1" t="str">
         <v xml:space="preserve">Matikumra Water Supply Scheme </v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C105" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D105" t="str">
+      <c r="C105" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D105" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
+      <c r="A106" s="1" t="str">
         <v xml:space="preserve">Naserkuli (Z-I &amp; II) Water Supply Scheme </v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106" s="1" t="str">
         <v>Ranaghat II</v>
       </c>
-      <c r="C106" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D106" t="str">
+      <c r="C106" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D106" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
+      <c r="A107" s="1" t="str">
         <v xml:space="preserve">Baganchara Water Supply Scheme </v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C107" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D107" t="str">
+      <c r="C107" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D107" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
+      <c r="A108" s="1" t="str">
         <v xml:space="preserve">Beharia Water Supply Scheme </v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C108" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D108" t="str">
+      <c r="C108" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D108" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
+      <c r="A109" s="1" t="str">
         <v xml:space="preserve">Boalia Water Supply Scheme </v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C109" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D109" t="str">
+      <c r="C109" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D109" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
+      <c r="A110" s="1" t="str">
         <v xml:space="preserve">Fulia Township Water Supply Scheme </v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C110" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D110" t="str">
+      <c r="C110" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D110" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
+      <c r="A111" s="1" t="str">
         <v xml:space="preserve">Gayespur Water Supply Scheme (Zone - I &amp; II) </v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C111" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D111" t="str">
+      <c r="C111" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D111" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
+      <c r="A112" s="1" t="str">
         <v xml:space="preserve">Ghoralia  Water Supply Scheme  (Zone - I &amp; II) </v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C112" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D112" t="str">
+      <c r="C112" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D112" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
+      <c r="A113" s="1" t="str">
         <v xml:space="preserve">Goalpur Water Supply Scheme  (Zone - I &amp; II) </v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C113" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D113" t="str">
+      <c r="C113" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D113" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
+      <c r="A114" s="1" t="str">
         <v xml:space="preserve">Gobindapur Water Supply Scheme  (Z-I &amp; II ) </v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C114" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D114" t="str">
+      <c r="C114" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D114" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
+      <c r="A115" s="1" t="str">
         <v xml:space="preserve">Nabla Water Supply Scheme  </v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C115" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D115" t="str">
+      <c r="C115" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D115" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
+      <c r="A116" s="1" t="str">
         <v xml:space="preserve">Nrisinghapur Water Supply Scheme </v>
       </c>
-      <c r="B116" t="str">
+      <c r="B116" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C116" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D116" t="str">
+      <c r="C116" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D116" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
+      <c r="A117" s="1" t="str">
         <v xml:space="preserve">Saguna Water Supply Scheme </v>
       </c>
-      <c r="B117" t="str">
+      <c r="B117" s="1" t="str">
         <v>Shantipur</v>
       </c>
-      <c r="C117" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D117" t="str">
+      <c r="C117" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D117" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
+      <c r="A118" s="1" t="str">
         <v>Bansbaria Water Supply Scheme</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B118" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C118" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D118" t="str">
+      <c r="C118" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D118" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
+      <c r="A119" s="1" t="str">
         <v>Bhaluka Water Supply Scheme</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B119" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C119" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D119" t="str">
+      <c r="C119" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D119" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
+      <c r="A120" s="1" t="str">
         <v>Bhandar Khola Water Supply Scheme</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C120" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D120" t="str">
+      <c r="C120" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D120" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
+      <c r="A121" s="1" t="str">
         <v>Bhimpur Water Supply Scheme</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B121" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C121" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D121" t="str">
+      <c r="C121" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D121" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
+      <c r="A122" s="1" t="str">
         <v>Chandpur Water Supply Scheme</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B122" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C122" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D122" t="str">
+      <c r="C122" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D122" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
+      <c r="A123" s="1" t="str">
         <v>Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B123" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C123" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D123" t="str">
+      <c r="C123" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D123" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
+      <c r="A124" s="1" t="str">
         <v>Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B124" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C124" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D124" t="str">
+      <c r="C124" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D124" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
+      <c r="A125" s="1" t="str">
         <v>Damodarkhali Water Supply Scheme</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B125" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C125" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D125" t="str">
+      <c r="C125" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D125" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
+      <c r="A126" s="1" t="str">
         <v>Dignagar Water Supply Scheme</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B126" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C126" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D126" t="str">
+      <c r="C126" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D126" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
+      <c r="A127" s="1" t="str">
         <v>Digri Water Supply Scheme</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C127" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D127" t="str">
+      <c r="C127" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D127" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
+      <c r="A128" s="1" t="str">
         <v>Gobrapota &amp; Naldaha Water Supply Scheme</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C128" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D128" t="str">
+      <c r="C128" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D128" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
+      <c r="A129" s="1" t="str">
         <v>Itla Water Supply Scheme</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C129" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D129" t="str">
+      <c r="C129" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D129" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
+      <c r="A130" s="1" t="str">
         <v>Joania Water Supply Scheme</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B130" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C130" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D130" t="str">
+      <c r="C130" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D130" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
+      <c r="A131" s="1" t="str">
         <v>Krishnagar Water Supply Scheme</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B131" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C131" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D131" t="str">
+      <c r="C131" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D131" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
+      <c r="A132" s="1" t="str">
         <v>Kulgachi Water Supply Scheme</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B132" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C132" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D132" t="str">
+      <c r="C132" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D132" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
+      <c r="A133" s="1" t="str">
         <v>Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B133" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C133" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D133" t="str">
+      <c r="C133" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D133" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
+      <c r="A134" s="1" t="str">
         <v>Monipota Water Supply Scheme</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B134" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C134" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D134" t="str">
+      <c r="C134" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D134" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
+      <c r="A135" s="1" t="str">
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B135" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C135" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D135" t="str">
+      <c r="C135" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D135" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
+      <c r="A136" s="1" t="str">
         <v>Senpur Water Supply Scheme</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B136" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C136" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D136" t="str">
+      <c r="C136" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D136" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
+      <c r="A137" s="1" t="str">
         <v>Sonda Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B137" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C137" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D137" t="str">
+      <c r="C137" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D137" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
+      <c r="A138" s="1" t="str">
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B138" s="1" t="str">
         <v>Krishnagar I</v>
       </c>
-      <c r="C138" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D138" t="str">
+      <c r="C138" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D138" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
+      <c r="A139" s="1" t="str">
         <v xml:space="preserve">Banpur Water Supply Scheme </v>
       </c>
-      <c r="B139" t="str">
+      <c r="B139" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C139" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D139" t="str">
+      <c r="C139" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D139" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="str">
+      <c r="A140" s="1" t="str">
         <v xml:space="preserve">Durgapur Changacha Water Supply Scheme </v>
       </c>
-      <c r="B140" t="str">
+      <c r="B140" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C140" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D140" t="str">
+      <c r="C140" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D140" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
+      <c r="A141" s="1" t="str">
         <v xml:space="preserve">Helenchi(Zone-I,II &amp; III) Water Supply Scheme </v>
       </c>
-      <c r="B141" t="str">
+      <c r="B141" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C141" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D141" t="str">
+      <c r="C141" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D141" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
+      <c r="A142" s="1" t="str">
         <v xml:space="preserve">Joyghata Water Supply Scheme </v>
       </c>
-      <c r="B142" t="str">
+      <c r="B142" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C142" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D142" t="str">
+      <c r="C142" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D142" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
+      <c r="A143" s="1" t="str">
         <v xml:space="preserve">Kadipur Water Supply Scheme </v>
       </c>
-      <c r="B143" t="str">
+      <c r="B143" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C143" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D143" t="str">
+      <c r="C143" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D143" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
+      <c r="A144" s="1" t="str">
         <v xml:space="preserve">Majhdia Water Supply Scheme </v>
       </c>
-      <c r="B144" t="str">
+      <c r="B144" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C144" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D144" t="str">
+      <c r="C144" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D144" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
+      <c r="A145" s="1" t="str">
         <v xml:space="preserve">Matiari Water Supply Scheme </v>
       </c>
-      <c r="B145" t="str">
+      <c r="B145" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C145" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D145" t="str">
+      <c r="C145" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D145" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
+      <c r="A146" s="1" t="str">
         <v xml:space="preserve">Sakdaha Water Supply Scheme </v>
       </c>
-      <c r="B146" t="str">
+      <c r="B146" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C146" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D146" t="str">
+      <c r="C146" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D146" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
+      <c r="A147" s="1" t="str">
         <v xml:space="preserve">Shyamnagar Water Supply Scheme </v>
       </c>
-      <c r="B147" t="str">
+      <c r="B147" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C147" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D147" t="str">
+      <c r="C147" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D147" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
+      <c r="A148" s="1" t="str">
         <v xml:space="preserve">Taldaha Water Supply Scheme </v>
       </c>
-      <c r="B148" t="str">
+      <c r="B148" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C148" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D148" t="str">
+      <c r="C148" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D148" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
+      <c r="A149" s="1" t="str">
         <v xml:space="preserve">Tungi Water Supply Scheme </v>
       </c>
-      <c r="B149" t="str">
+      <c r="B149" s="1" t="str">
         <v>Krishnaganj</v>
       </c>
-      <c r="C149" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D149" t="str">
+      <c r="C149" s="1" t="str">
+        <v>Nadia</v>
+      </c>
+      <c r="D149" s="1" t="str">
         <v>West Bengal</v>
       </c>
     </row>

--- a/output/Scheme_Master.xlsx
+++ b/output/Scheme_Master.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +435,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v xml:space="preserve">Anandapur Water Supply Scheme </v>
+        <v>Anandapur Water Supply Scheme</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>Karimpur I</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v xml:space="preserve">Andharkota Water Supply Scheme </v>
+        <v>Andharkota Water Supply Scheme</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>Karimpur I</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v xml:space="preserve">Arabpur Water Supply Scheme </v>
+        <v>Arabpur Water Supply Scheme</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>Karimpur I</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v xml:space="preserve">Baruipara Water Supply Scheme </v>
+        <v>Baruipara Water Supply Scheme</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>Karimpur I</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
-        <v xml:space="preserve">Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme </v>
+        <v>Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>Karimpur I</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="str">
-        <v xml:space="preserve">Karimpur Water Supply Scheme </v>
+        <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="B8" s="1" t="str">
         <v>Karimpur I</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="str">
-        <v xml:space="preserve">Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme </v>
+        <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>Karimpur I</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="str">
-        <v xml:space="preserve">Madhugari  Water Supply Scheme </v>
+        <v>Madhugari  Water Supply Scheme</v>
       </c>
       <c r="B10" s="1" t="str">
         <v>Karimpur I</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="str">
-        <v xml:space="preserve">Bablari Dewanganj Water Supply Scheme </v>
+        <v>Bablari Dewanganj Water Supply Scheme</v>
       </c>
       <c r="B78" s="1" t="str">
         <v>Nabadwip</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="str">
-        <v xml:space="preserve">Gadigachha Water Supply Scheme </v>
+        <v>Gadigachha Water Supply Scheme</v>
       </c>
       <c r="B80" s="1" t="str">
         <v>Nabadwip</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="str">
-        <v xml:space="preserve">Mahisura Water Supply Scheme </v>
+        <v>Mahisura Water Supply Scheme</v>
       </c>
       <c r="B81" s="1" t="str">
         <v>Nabadwip</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="str">
-        <v xml:space="preserve">Tiorkhali Water Supply Scheme </v>
+        <v>Tiorkhali Water Supply Scheme</v>
       </c>
       <c r="B83" s="1" t="str">
         <v>Nabadwip</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="str">
-        <v xml:space="preserve">Bara Kulta Water Supply Scheme </v>
+        <v>Bara Kulta Water Supply Scheme</v>
       </c>
       <c r="B85" s="1" t="str">
         <v>Ranaghat I</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="str">
-        <v xml:space="preserve">Birnagar Water Supply Scheme </v>
+        <v>Birnagar Water Supply Scheme</v>
       </c>
       <c r="B86" s="1" t="str">
         <v>Ranaghat I</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="str">
-        <v xml:space="preserve">Radhakantapur Water Supply Scheme </v>
+        <v>Radhakantapur Water Supply Scheme</v>
       </c>
       <c r="B89" s="1" t="str">
         <v>Ranaghat I</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="str">
-        <v xml:space="preserve">Habibpur Water Supply Scheme </v>
+        <v>Habibpur Water Supply Scheme</v>
       </c>
       <c r="B92" s="1" t="str">
         <v>Ranaghat I</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="str">
-        <v xml:space="preserve">Matikumra Water Supply Scheme </v>
+        <v>Matikumra Water Supply Scheme</v>
       </c>
       <c r="B105" s="1" t="str">
         <v>Ranaghat II</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="str">
-        <v xml:space="preserve">Naserkuli (Z-I &amp; II) Water Supply Scheme </v>
+        <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="B106" s="1" t="str">
         <v>Ranaghat II</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="str">
-        <v xml:space="preserve">Baganchara Water Supply Scheme </v>
+        <v>Baganchara Water Supply Scheme</v>
       </c>
       <c r="B107" s="1" t="str">
         <v>Shantipur</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="str">
-        <v xml:space="preserve">Beharia Water Supply Scheme </v>
+        <v>Beharia Water Supply Scheme</v>
       </c>
       <c r="B108" s="1" t="str">
         <v>Shantipur</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="str">
-        <v xml:space="preserve">Boalia Water Supply Scheme </v>
+        <v>Boalia Water Supply Scheme</v>
       </c>
       <c r="B109" s="1" t="str">
         <v>Shantipur</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="str">
-        <v xml:space="preserve">Fulia Township Water Supply Scheme </v>
+        <v>Fulia Township Water Supply Scheme</v>
       </c>
       <c r="B110" s="1" t="str">
         <v>Shantipur</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="str">
-        <v xml:space="preserve">Gayespur Water Supply Scheme (Zone - I &amp; II) </v>
+        <v>Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="B111" s="1" t="str">
         <v>Shantipur</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="str">
-        <v xml:space="preserve">Ghoralia  Water Supply Scheme  (Zone - I &amp; II) </v>
+        <v>Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="B112" s="1" t="str">
         <v>Shantipur</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="str">
-        <v xml:space="preserve">Goalpur Water Supply Scheme  (Zone - I &amp; II) </v>
+        <v>Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="B113" s="1" t="str">
         <v>Shantipur</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="str">
-        <v xml:space="preserve">Gobindapur Water Supply Scheme  (Z-I &amp; II ) </v>
+        <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="B114" s="1" t="str">
         <v>Shantipur</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="str">
-        <v xml:space="preserve">Nabla Water Supply Scheme  </v>
+        <v>Nabla Water Supply Scheme</v>
       </c>
       <c r="B115" s="1" t="str">
         <v>Shantipur</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="str">
-        <v xml:space="preserve">Nrisinghapur Water Supply Scheme </v>
+        <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="B116" s="1" t="str">
         <v>Shantipur</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="str">
-        <v xml:space="preserve">Saguna Water Supply Scheme </v>
+        <v>Saguna Water Supply Scheme</v>
       </c>
       <c r="B117" s="1" t="str">
         <v>Shantipur</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="str">
-        <v xml:space="preserve">Banpur Water Supply Scheme </v>
+        <v>Banpur Water Supply Scheme</v>
       </c>
       <c r="B139" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="str">
-        <v xml:space="preserve">Durgapur Changacha Water Supply Scheme </v>
+        <v>Durgapur Changacha Water Supply Scheme</v>
       </c>
       <c r="B140" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="str">
-        <v xml:space="preserve">Helenchi(Zone-I,II &amp; III) Water Supply Scheme </v>
+        <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="B141" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="str">
-        <v xml:space="preserve">Joyghata Water Supply Scheme </v>
+        <v>Joyghata Water Supply Scheme</v>
       </c>
       <c r="B142" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="str">
-        <v xml:space="preserve">Kadipur Water Supply Scheme </v>
+        <v>Kadipur Water Supply Scheme</v>
       </c>
       <c r="B143" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="str">
-        <v xml:space="preserve">Majhdia Water Supply Scheme </v>
+        <v>Majhdia Water Supply Scheme</v>
       </c>
       <c r="B144" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="str">
-        <v xml:space="preserve">Matiari Water Supply Scheme </v>
+        <v>Matiari Water Supply Scheme</v>
       </c>
       <c r="B145" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="str">
-        <v xml:space="preserve">Sakdaha Water Supply Scheme </v>
+        <v>Sakdaha Water Supply Scheme</v>
       </c>
       <c r="B146" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="str">
-        <v xml:space="preserve">Shyamnagar Water Supply Scheme </v>
+        <v>Taldaha Water Supply Scheme</v>
       </c>
       <c r="B147" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="str">
-        <v xml:space="preserve">Taldaha Water Supply Scheme </v>
+        <v>Tungi Water Supply Scheme</v>
       </c>
       <c r="B148" s="1" t="str">
         <v>Krishnaganj</v>
@@ -2477,23 +2477,9 @@
         <v>West Bengal</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="str">
-        <v xml:space="preserve">Tungi Water Supply Scheme </v>
-      </c>
-      <c r="B149" s="1" t="str">
-        <v>Krishnaganj</v>
-      </c>
-      <c r="C149" s="1" t="str">
-        <v>Nadia</v>
-      </c>
-      <c r="D149" s="1" t="str">
-        <v>West Bengal</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D148"/>
   </ignoredErrors>
 </worksheet>
 </file>